--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3901822.56967945</v>
+        <v>4004619.989747105</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7204885.46942608</v>
+        <v>7170985.739162119</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>56.95878470059987</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>15.381854927674</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>65.29024472877059</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>79.88123975447283</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>36.32707961669675</v>
       </c>
       <c r="C5" t="n">
-        <v>240.245049756315</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>13.2327950527707</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>248.3023066353638</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>52.33551640890063</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>37.93649886016318</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>135.8241034250908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>132.7328787290205</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701363</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>131.7584887394952</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="21">
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>73.44478684180609</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>121.2172995552612</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.665762779849726</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>142.4285301601181</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,19 +2763,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>242.2547062148082</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>110.0177171766866</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808338</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>107.4021082756248</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652583</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4147,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>155.2435806730856</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943747</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D2" t="n">
-        <v>950.1045973369964</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E2" t="n">
-        <v>950.1045973369964</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1186925473889</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>124.0462423923854</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2180.180263464892</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C4" t="n">
-        <v>2011.244080536985</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D4" t="n">
-        <v>1861.127441124649</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1713.214347542256</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1632.526226578142</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435996</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3133.919937435996</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>3133.919937435996</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>2879.23544923011</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>2589.818279193149</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X4" t="n">
-        <v>2361.828728295131</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>2361.828728295131</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2218.876689164174</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.7846764101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.7846764101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139986</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2609.016021139986</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y5" t="n">
-        <v>2218.876689164174</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.6720730524786</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C7" t="n">
-        <v>509.7358901245717</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D7" t="n">
-        <v>359.619250712236</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1632.411747023583</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1377.727258817696</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1088.310088780736</v>
+        <v>884.0983136252247</v>
       </c>
       <c r="X7" t="n">
-        <v>860.3205378827183</v>
+        <v>884.0983136252247</v>
       </c>
       <c r="Y7" t="n">
-        <v>860.3205378827183</v>
+        <v>663.3057344816946</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528559</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528559</v>
+        <v>958.1473305693551</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>572.3590779711108</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>161.3731731815032</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2717.487232975976</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2364.718577705862</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1991.252819444782</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.11348746897</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986293</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291641</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068411</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486466</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415546</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.697475415546</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="11">
@@ -5033,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2313.46766635706</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459586</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180517</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761984</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1026.887310050512</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1654.485273605118</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935562</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>666.6476097656493</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>516.5309703533136</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>368.6178767709205</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5744,31 +5746,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,55 +5886,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5941,19 +5943,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1970.320130882545</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.635642676658</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1426.218472639697</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.22892174168</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>2883.976121413757</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>2883.976121413757</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032296</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1732.759357061207</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,10 +6457,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
@@ -6467,43 +6469,43 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,19 +6548,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>2757.723669558404</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>2646.594662309225</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115002</v>
+        <v>2646.594662309225</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>2646.594662309225</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>2646.594662309225</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>2479.398563024105</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931272</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547833</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>3227.225672628157</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>3058.28948970025</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>2908.172850287915</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>2760.259756705521</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>2613.369809207611</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>2446.173709922491</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>4147.073437536905</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>3857.656267499944</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>3629.666716601927</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>3408.874137458397</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111712</v>
@@ -6941,31 +6943,31 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,16 +7025,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7494,19 +7496,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>2715.159942084666</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>2817.800993781637</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336244</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.308687575531</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1237.37303605497</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1016.58045691144</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>15.88259428919187</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.66255928343602</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>212.7396875474381</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>58.61468062667613</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9188905722451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>24.8182909385097</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>43.92976817443596</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>32.89260457059909</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>70.46607471595152</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>617558.829067751</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>617558.8290677508</v>
+        <v>617558.829067751</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>627980.2066984589</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>627980.2066984589</v>
+        <v>617558.829067751</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>627980.2066984589</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>627980.2066984589</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>627980.2066984589</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>617558.829067751</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642847</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642849</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642839</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642848</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.7698642848</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683035</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26436,25 +26438,25 @@
         <v>12996.86414683048</v>
       </c>
       <c r="I4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.8641468305</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>12996.86414683049</v>
+      </c>
+      <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="K4" t="n">
-        <v>20987.72340992392</v>
-      </c>
-      <c r="L4" t="n">
-        <v>20987.7234099239</v>
-      </c>
       <c r="M4" t="n">
-        <v>20987.7234099239</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.7234099239</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.7234099239</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707820.8153428842</v>
+        <v>-707820.8153428846</v>
       </c>
       <c r="C6" t="n">
-        <v>620923.9303847081</v>
+        <v>620923.9303847083</v>
       </c>
       <c r="D6" t="n">
-        <v>620923.9303847083</v>
+        <v>620923.930384708</v>
       </c>
       <c r="E6" t="n">
-        <v>367614.7439119129</v>
+        <v>367614.7439119137</v>
       </c>
       <c r="F6" t="n">
-        <v>693027.2057192688</v>
+        <v>693027.2057192686</v>
       </c>
       <c r="G6" t="n">
-        <v>693027.2057192688</v>
+        <v>693027.2057192689</v>
       </c>
       <c r="H6" t="n">
-        <v>693027.2057192688</v>
+        <v>693027.2057192689</v>
       </c>
       <c r="I6" t="n">
-        <v>693027.2057192688</v>
+        <v>693027.2057192689</v>
       </c>
       <c r="J6" t="n">
-        <v>475496.003321991</v>
+        <v>475496.0033219913</v>
       </c>
       <c r="K6" t="n">
-        <v>677462.2126068135</v>
+        <v>693027.2057192684</v>
       </c>
       <c r="L6" t="n">
-        <v>696889.9306004456</v>
+        <v>693027.205719269</v>
       </c>
       <c r="M6" t="n">
-        <v>611834.9026649327</v>
+        <v>607972.1777837569</v>
       </c>
       <c r="N6" t="n">
-        <v>696889.9306004455</v>
+        <v>693027.2057192685</v>
       </c>
       <c r="O6" t="n">
-        <v>696889.9306004455</v>
+        <v>693027.2057192689</v>
       </c>
       <c r="P6" t="n">
-        <v>693027.2057192689</v>
+        <v>693027.2057192686</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26790,16 +26792,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>325.7750569628807</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>279.2259094596465</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>83.32522828944177</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>65.53980826845842</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>346.4067620467838</v>
       </c>
       <c r="C5" t="n">
-        <v>125.0278420146925</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>272.9790431528422</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>38.22069170122717</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>358.5862092445528</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>289.8157596099717</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>21.59472895491429</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>150.6988949115002</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29287,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29569,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002942</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>344.9857809048113</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>669.5976799347666</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>622.3466130915036</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32716,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32783,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>324.9782573297445</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32810,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,16 +33025,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33266,10 +33268,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33433,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33500,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34214,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,10 +34228,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34451,22 +34453,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>245.8118639189581</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.635950985964</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>205.0040068187898</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>527.4636460127482</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>479.7503686470592</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>187.1368183553855</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,10 +37876,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38099,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>103.6778299969398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4004619.989747105</v>
+        <v>4000607.379733111</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.95878470059987</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.296101769923858</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>65.29024472877059</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>104.1375486291686</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.32707961669675</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>248.3023066353638</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>52.33551640890063</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4.04318711639895</v>
       </c>
       <c r="I10" t="n">
-        <v>74.7576914549238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1429,13 +1429,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>36.43062059490413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>13.79222725775321</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>25.7319404949734</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.2172995552612</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2766,16 +2766,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
-        <v>242.2547062148082</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756248</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634562</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128565</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364138</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154444</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819364</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986269</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182114</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465683</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>19.91555826189196</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.026286001644</v>
       </c>
       <c r="T43" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272874</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892432</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238271</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365901</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890362</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520939</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128565</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364138</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154444</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892426539</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101224</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016449</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.836169983545</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1250.836169983545</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D2" t="n">
-        <v>892.5704713767946</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051532</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.03827352421</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548398</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>481.6572696514548</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>481.6572696514548</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W7" t="n">
-        <v>884.0983136252247</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X7" t="n">
-        <v>884.0983136252247</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y7" t="n">
-        <v>663.3057344816946</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116517</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.413029176106</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>958.1473305693551</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>572.3590779711108</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>161.3731731815032</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,10 +4886,10 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.0249360836216</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C10" t="n">
-        <v>142.0249360836216</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="D10" t="n">
-        <v>142.0249360836216</v>
+        <v>365.3991849027889</v>
       </c>
       <c r="E10" t="n">
-        <v>142.0249360836216</v>
+        <v>217.4860913203958</v>
       </c>
       <c r="F10" t="n">
-        <v>142.0249360836216</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0249360836216</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0249360836216</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845476</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2433.031540895662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2433.031540895662</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,19 +5828,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2883.976121413757</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2883.976121413757</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.644273983533</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1732.759357061207</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1478.07486885532</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.07486885532</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.085317957303</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813773</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558404</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2646.594662309225</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2646.594662309225</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.594662309225</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309225</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024105</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532174</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388644</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3227.225672628157</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3058.28948970025</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2908.172850287915</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2760.259756705521</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2613.369809207611</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2446.173709922491</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4147.073437536905</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3857.656267499944</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3629.666716601927</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3408.874137458397</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,73 +7387,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551901</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611489</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004739</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406495</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616887</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362944</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304799728</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638194992</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111925</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611076184</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332419</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014805</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355956</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068023</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694715</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300131</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568981</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028059</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756248</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468423</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962597</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589144</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143746</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685895</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685895</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7523,7 +7523,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V42" t="n">
         <v>1781.463605996603</v>
@@ -7532,7 +7532,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y42" t="n">
         <v>1111.614450297915</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>113.9333885650345</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>113.9333885650345</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797717</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580252</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580252</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235157</v>
       </c>
       <c r="T43" t="n">
-        <v>2253.366709591041</v>
+        <v>2044.506784258099</v>
       </c>
       <c r="U43" t="n">
-        <v>1964.291482935239</v>
+        <v>1755.431557602298</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359452</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614355</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>762.5477693179063</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638197044</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311213</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611076178</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332418</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014804</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355956</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068023</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694715</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300131</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568981</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028059</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756248</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468423</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962597</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589144</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565711</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7760,7 +7760,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V45" t="n">
         <v>1781.463605996603</v>
@@ -7769,7 +7769,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y45" t="n">
         <v>1111.614450297915</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400548</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.917417812148</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.917417812148</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.917417812148</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.917417812148</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270279</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782946</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038314</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797691</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910801</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570807</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.08939327979</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853347</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580245</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832646</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487551</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510492</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.38585385469</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648803</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611842</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138247</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655702946</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>52.58301945236843</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58.61468062667613</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
-        <v>43.92976817443596</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>32.89260457059909</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229303</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>145.608580030376</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462231</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856511</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012149</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392195861</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856602</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>617558.8290677508</v>
+        <v>617558.829067751</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>617558.829067751</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>617558.829067751</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>617558.8290677508</v>
+        <v>617558.829067751</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>617558.8290677508</v>
+        <v>617558.8290677505</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900065</v>
-      </c>
       <c r="I2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900055</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900059</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-3.64472507575766e-09</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683036</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683187</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26508,10 +26508,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707820.8153428846</v>
+        <v>-707820.8153428845</v>
       </c>
       <c r="C6" t="n">
-        <v>620923.9303847083</v>
+        <v>620923.9303847081</v>
       </c>
       <c r="D6" t="n">
-        <v>620923.930384708</v>
+        <v>620923.9303847082</v>
       </c>
       <c r="E6" t="n">
-        <v>367614.7439119137</v>
+        <v>367267.3646575563</v>
       </c>
       <c r="F6" t="n">
-        <v>693027.2057192686</v>
+        <v>692679.8264649117</v>
       </c>
       <c r="G6" t="n">
-        <v>693027.2057192689</v>
+        <v>692679.8264649115</v>
       </c>
       <c r="H6" t="n">
-        <v>693027.2057192689</v>
+        <v>692679.826464912</v>
       </c>
       <c r="I6" t="n">
-        <v>693027.2057192689</v>
+        <v>692679.8264649117</v>
       </c>
       <c r="J6" t="n">
-        <v>475496.0033219913</v>
+        <v>475148.6240676343</v>
       </c>
       <c r="K6" t="n">
-        <v>693027.2057192684</v>
+        <v>692679.8264649119</v>
       </c>
       <c r="L6" t="n">
-        <v>693027.205719269</v>
+        <v>692679.8264649118</v>
       </c>
       <c r="M6" t="n">
-        <v>607972.1777837569</v>
+        <v>607624.7985293999</v>
       </c>
       <c r="N6" t="n">
-        <v>693027.2057192685</v>
+        <v>692679.8264649118</v>
       </c>
       <c r="O6" t="n">
-        <v>693027.2057192689</v>
+        <v>692679.8264649149</v>
       </c>
       <c r="P6" t="n">
-        <v>693027.2057192686</v>
+        <v>692679.8264649123</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26776,10 +26776,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341665</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341665</v>
       </c>
     </row>
     <row r="4">
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.688903330164796e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-8.378309603313082e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325.7750569628807</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>373.6342683023379</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.32522828944177</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>114.4471047229262</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>346.4067620467838</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>11.61860823624281</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>38.22069170122717</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>358.5862092445528</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>140.7118277979218</v>
       </c>
       <c r="I10" t="n">
-        <v>21.59472895491429</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.478997154632013e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.431079337839037e-11</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>9.01070568504318e-13</v>
       </c>
     </row>
     <row r="44">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515238</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,22 +32548,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N21" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32718,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,10 +33268,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33435,10 +33435,10 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348398</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135304</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067218</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663252</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081753</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162505</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175612</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159362</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626459968</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236456</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669184</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043703</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292892</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651512</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078717</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865943</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521082</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420737</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422555</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473031</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862073</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071735</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940903</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485266</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742403</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937726</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275942</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189887</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121556</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869227</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379625</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355159</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588129</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.688550039202</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106764</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920035</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417295</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515914</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670471</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532738</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099315</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467213</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348398</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135304</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067681</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663252</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081753</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162505</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175612</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159362</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626459968</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236456</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669184</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043703</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292892</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651512</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078717</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865943</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521082</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420737</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422555</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473031</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862073</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312189</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214661</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742403</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937726</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275942</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189887</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121556</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869227</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379625</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355159</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588129</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.688550039202</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106764</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920035</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417295</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515914</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670471</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532738</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099315</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467213</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716496</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>103.6778299969399</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N21" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315892</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.708711039639</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367724</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462633</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902885</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193452</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.48865122431</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683761</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924689</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775407</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678965</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674289</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.412613764189</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238402</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074964584</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625051</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295315</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409634</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060441</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066239</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.53969023636215</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.708711039639</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367724</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462633</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902885</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193452</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.48865122431</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683761</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924689</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775407</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678965</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674289</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764189</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288556</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071359</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295225</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096331</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.342014319129</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010426</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899049</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060432</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306623</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.402257299897</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4000607.379733111</v>
+        <v>4002367.910035898</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.296101769923858</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>8.296101769923858</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -870,7 +870,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>105.1018445532432</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>104.1375486291686</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>17.35112070699554</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699578</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>22.05778319391014</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506846</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>4.04318711639895</v>
+        <v>4.043187116398935</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,13 +1429,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>13.79222725775265</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>13.79222725775321</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605717069</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634562</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128565</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364138</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154444</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986269</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182114</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465683</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>19.91555826189196</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.026286001644</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272874</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892432</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238271</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365901</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890362</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520939</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695611</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128565</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364138</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154444</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892426539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101224</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016449</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855438</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9472709150266</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>942.9472709150266</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,10 +4345,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4375,7 +4375,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4518,19 +4518,19 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1539.614727326137</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368016</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X4" t="n">
-        <v>1134.908724368016</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
         <v>1029.71928130825</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>952.0937546898465</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>541.107849900239</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>126.0353997452355</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,25 +4567,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4606,13 +4606,13 @@
         <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="6">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1238.03887196831</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>869.0763550278987</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>510.8106564211482</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>510.8106564211482</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>503.8651556719447</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>88.79270551694117</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>88.79270551694117</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2014.778044008244</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1624.638712032432</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4956,10 +4956,10 @@
         <v>70.5961438224854</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,58 +5029,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2129.438138565707</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>626.3497813227623</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>478.4366877403692</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>331.5467402424588</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2433.031540895662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2433.031540895662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2213.430075918604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1924.354849262801</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1669.670361056914</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1380.253191019954</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1152.263640121936</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>931.4710609784063</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5308,10 +5308,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,13 +5691,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,19 +5828,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,13 +5968,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6004,34 +6004,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,16 +6539,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M30" t="n">
         <v>1337.934786622704</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,73 +7387,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551901</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611489</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004739</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406495</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616887</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362944</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304799728</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638194992</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111925</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611076184</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332419</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014805</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355956</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068023</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694715</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300131</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568981</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028059</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756248</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468423</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962597</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589144</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143746</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685895</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685895</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7523,7 +7523,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
         <v>1781.463605996603</v>
@@ -7532,7 +7532,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
         <v>1111.614450297915</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876675</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597615</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474267</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650345</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9333885650345</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797717</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580252</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580252</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235157</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258099</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602298</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396412</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359452</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614355</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638197044</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311213</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611076178</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332418</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014804</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355956</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068023</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694715</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300131</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568981</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028059</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756248</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468423</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962597</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589144</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7760,7 +7760,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
         <v>1781.463605996603</v>
@@ -7769,7 +7769,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
         <v>1111.614450297915</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400548</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.917417812148</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.917417812148</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.917417812148</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.917417812148</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270279</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782946</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038314</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797691</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910801</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570807</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.08939327979</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853347</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580245</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832646</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487551</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510492</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.38585385469</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648803</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611842</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138247</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655702946</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>151.7319110345162</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>52.58301945236843</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="23">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229303</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.608580030376</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462231</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856511</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012149</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392195861</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856602</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>617558.8290677508</v>
+        <v>617558.829067751</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>617558.829067751</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>617558.8290677505</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="F2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900062</v>
@@ -26349,13 +26349,13 @@
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="O2" t="n">
-        <v>807146.5996900055</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.64472507575766e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683036</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26456,7 +26456,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683187</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26508,10 +26508,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707820.8153428845</v>
+        <v>-707820.8153428844</v>
       </c>
       <c r="C6" t="n">
-        <v>620923.9303847081</v>
+        <v>620923.9303847085</v>
       </c>
       <c r="D6" t="n">
-        <v>620923.9303847082</v>
+        <v>620923.930384708</v>
       </c>
       <c r="E6" t="n">
-        <v>367267.3646575563</v>
+        <v>367580.0059864779</v>
       </c>
       <c r="F6" t="n">
-        <v>692679.8264649117</v>
+        <v>692992.467793833</v>
       </c>
       <c r="G6" t="n">
-        <v>692679.8264649115</v>
+        <v>692992.4677938331</v>
       </c>
       <c r="H6" t="n">
-        <v>692679.826464912</v>
+        <v>692992.4677938332</v>
       </c>
       <c r="I6" t="n">
-        <v>692679.8264649117</v>
+        <v>692992.4677938328</v>
       </c>
       <c r="J6" t="n">
-        <v>475148.6240676343</v>
+        <v>475461.2653965555</v>
       </c>
       <c r="K6" t="n">
-        <v>692679.8264649119</v>
+        <v>692992.4677938332</v>
       </c>
       <c r="L6" t="n">
-        <v>692679.8264649118</v>
+        <v>692992.467793833</v>
       </c>
       <c r="M6" t="n">
-        <v>607624.7985293999</v>
+        <v>607937.4398583213</v>
       </c>
       <c r="N6" t="n">
-        <v>692679.8264649118</v>
+        <v>692992.4677938332</v>
       </c>
       <c r="O6" t="n">
-        <v>692679.8264649149</v>
+        <v>692992.4677938331</v>
       </c>
       <c r="P6" t="n">
-        <v>692679.8264649123</v>
+        <v>692992.4677938332</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26776,10 +26776,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341665</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341665</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.688903330164796e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-8.378309603313082e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>373.6342683023379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>377.9418368861297</v>
       </c>
     </row>
     <row r="3">
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>114.447104722926</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>114.4471047229262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>277.2566436803249</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>19.51914657901581</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194503</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.431079337839037e-11</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.01070568504318e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>467.1465236515238</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32560,31 +32560,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860829</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33268,16 +33268,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>169.9530009943068</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348398</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135304</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067218</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663252</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.544175081753</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162505</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175612</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159362</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626459968</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236456</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669184</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043703</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292892</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651512</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078717</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865943</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521082</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420737</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422555</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473031</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862073</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071735</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940903</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485266</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742403</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937726</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275942</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189887</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121556</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869227</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.405663379625</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355159</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588129</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.688550039202</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106764</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920035</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417295</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515914</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670471</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532738</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099315</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467213</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348398</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135304</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067681</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663252</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.544175081753</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162505</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175612</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159362</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626459968</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236456</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669184</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043703</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292892</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651512</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078717</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865943</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521082</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420737</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422555</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473031</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862073</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312189</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214661</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742403</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937726</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275942</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189887</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121556</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869227</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.405663379625</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355159</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588129</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.688550039202</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106764</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920035</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417295</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515914</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670471</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532738</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099315</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467213</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>328.5921438716496</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640646</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>35.9785935799765</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315892</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039639</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367724</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462633</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902885</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193452</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.48865122431</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683761</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924689</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902382</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.158224775407</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678965</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674289</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764189</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238402</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074964584</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625051</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295315</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409634</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060441</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066239</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.53969023636215</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039639</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367724</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462633</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902885</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193452</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.48865122431</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683761</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924689</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902382</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.158224775407</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678965</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674289</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764189</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288556</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071359</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295225</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096331</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.342014319129</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010426</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899049</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060432</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306623</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.402257299897</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
